--- a/regionseng/11/trade/trade.xlsx
+++ b/regionseng/11/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="6870" windowWidth="22695" windowHeight="6015"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +145,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +189,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -224,12 +217,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -537,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -549,7 +536,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -568,8 +555,10 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -616,8 +605,14 @@
       <c r="P3" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -663,11 +658,17 @@
       <c r="O4" s="5">
         <v>276.8</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="5">
         <v>280.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="5">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="R4" s="5">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -713,11 +714,17 @@
       <c r="O5" s="5">
         <v>52.1</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="5">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5">
+        <v>86.6</v>
+      </c>
+      <c r="R5" s="5">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -763,11 +770,17 @@
       <c r="O6" s="6">
         <v>2236</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="6">
         <v>1669</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="6">
+        <v>2722</v>
+      </c>
+      <c r="R6" s="6">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,11 +826,17 @@
       <c r="O7" s="6">
         <v>1259</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="6">
         <v>1157</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="6">
+        <v>1944</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -863,11 +882,17 @@
       <c r="O8" s="5">
         <v>772</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="5">
         <v>955.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5">
+        <v>1098</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1283.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -913,11 +938,17 @@
       <c r="O9" s="5">
         <v>13.3</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="R9" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -963,11 +994,17 @@
       <c r="O10" s="5">
         <v>11.9</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1013,11 +1050,17 @@
       <c r="O11" s="5">
         <v>38.9</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="5">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="R11" s="5">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1063,11 +1106,17 @@
       <c r="O12" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="R12" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1113,11 +1162,17 @@
       <c r="O13" s="5">
         <v>249</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="5">
         <v>256.60000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5">
+        <v>574.5</v>
+      </c>
+      <c r="R13" s="5">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1163,11 +1218,17 @@
       <c r="O14" s="5">
         <v>236</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="5">
         <v>244.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75">
+      <c r="Q14" s="5">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="R14" s="5">
+        <v>655.20000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1258,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/11/trade/trade.xlsx
+++ b/regionseng/11/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8850"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="16605" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -536,7 +536,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -557,8 +557,9 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S1" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -611,8 +612,11 @@
       <c r="R3" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -667,8 +671,11 @@
       <c r="R4" s="5">
         <v>753</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5">
+        <v>810.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -723,8 +730,11 @@
       <c r="R5" s="5">
         <v>111.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -779,8 +789,11 @@
       <c r="R6" s="6">
         <v>2796</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="6">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -835,8 +848,11 @@
       <c r="R7" s="6">
         <v>2277</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="6">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -891,8 +907,11 @@
       <c r="R8" s="5">
         <v>1283.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5">
+        <v>1503.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -947,8 +966,11 @@
       <c r="R9" s="5">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1025,11 @@
       <c r="R10" s="5">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1084,11 @@
       <c r="R11" s="5">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1115,8 +1143,11 @@
       <c r="R12" s="5">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1171,8 +1202,11 @@
       <c r="R13" s="5">
         <v>684</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1227,8 +1261,11 @@
       <c r="R14" s="5">
         <v>655.20000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
+      <c r="S14" s="5">
+        <v>704.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1295,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
